--- a/TrainerBackend/TrainerBackend/pdf/Questionstest.xlsx
+++ b/TrainerBackend/TrainerBackend/pdf/Questionstest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6147956\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6147951\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F718BAF0-D3AD-4CF9-8D6A-9623C484B3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E2F5BD-AC0F-4B8C-AD1F-FC7BCB638FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5C2A9859-E280-40D6-BFAF-53A2B14BF33B}"/>
   </bookViews>
@@ -36,23 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
-  <si>
-    <t>Geography</t>
-  </si>
-  <si>
-    <t>Geolocation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>What is the location?</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
     <t>C Sharp</t>
   </si>
   <si>
@@ -104,10 +92,22 @@
     <t>CorrectAnswer</t>
   </si>
   <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>Addition</t>
+  </si>
+  <si>
+    <t>What is the 2+2?</t>
+  </si>
+  <si>
     <t>Explanation</t>
   </si>
   <si>
-    <t>sadfghj</t>
+    <t>It is basic addition</t>
+  </si>
+  <si>
+    <t>As it consists of model, view and controller</t>
   </si>
 </sst>
 </file>
@@ -160,211 +160,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>390525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3238501</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>3095625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B8FD642-860F-3B77-9351-55CCF6984651}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3714751" y="581025"/>
-          <a:ext cx="2705100" cy="2705100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>349249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2686050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2816224</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4999819-48CF-947A-1925-223EBFAE384C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7562850" y="539749"/>
-          <a:ext cx="2466975" cy="2466975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2654300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2587625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57A208FD-C7E1-D8F1-AC5E-1F69C38DD724}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12468225" y="504825"/>
-          <a:ext cx="2273300" cy="2273300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>361950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2339975</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2635250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB3FEAD-4ED5-419F-85EC-0E9C0DF93C47}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16821150" y="552450"/>
-          <a:ext cx="2273300" cy="2273300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -686,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E4802E-29B1-4573-9120-3A6705827579}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,89 +492,99 @@
     <col min="6" max="6" width="44.85546875" customWidth="1"/>
     <col min="7" max="7" width="26.28515625" customWidth="1"/>
     <col min="8" max="8" width="42.85546875" customWidth="1"/>
-    <col min="9" max="9" width="27.140625" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="284.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
@@ -787,6 +592,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>